--- a/实验2：软件需求评审/对本组评审意见汇总/评审意见意见汇总.xlsx
+++ b/实验2：软件需求评审/对本组评审意见汇总/评审意见意见汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验2：软件需求评审/对本组评审意见汇总/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F3A66B-1ED3-3A4C-ADA5-EFA1CEE9727C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF4928-D96A-E740-A5A6-8AADD47460CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="1200" windowWidth="28040" windowHeight="17040" xr2:uid="{E6460FA4-8BA3-A546-89D6-6F487151E798}"/>
+    <workbookView xWindow="3440" yWindow="460" windowWidth="28020" windowHeight="17040" xr2:uid="{E6460FA4-8BA3-A546-89D6-6F487151E798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="131">
   <si>
     <t>问题位置</t>
   </si>
@@ -555,26 +555,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接受已在引言添加说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不接受，对Git的描述从不同角度出发，不应连接在一起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疑问，哪些重要术语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可以考虑增加新的一项描述Git额外服务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疑问，文中已经分成基本git描述了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可以考虑将高性能和高并发请求放入别的章节</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -588,6 +576,14 @@
   </si>
   <si>
     <t>建议细化具体修改内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不接受，前文没有的术语定义文中已经有简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不接受，Gitlab项目的迁移过程中使用者仅需要填写仓库信息，没有其他需要参与的过程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -645,6 +641,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -735,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,11 +767,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,6 +777,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE6C811-9AC0-DC4B-BB8F-A8F70C1FBAC5}">
   <dimension ref="A5:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1160,7 +1167,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1171,10 +1178,10 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1187,7 +1194,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1214,8 +1221,8 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="9" t="s">
-        <v>123</v>
+      <c r="K8" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1225,10 +1232,10 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1241,8 +1248,8 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="9" t="s">
-        <v>124</v>
+      <c r="K9" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1268,8 +1275,8 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="9" t="s">
-        <v>125</v>
+      <c r="K10" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1279,10 +1286,10 @@
       <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1290,13 +1297,13 @@
         <v>8</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="9" t="s">
-        <v>127</v>
+      <c r="K11" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1317,12 +1324,12 @@
         <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1349,8 +1356,8 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="9" t="s">
-        <v>129</v>
+      <c r="K13" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1376,7 +1383,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1387,10 +1394,10 @@
       <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1410,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1430,7 +1437,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1441,10 +1448,10 @@
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1464,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1468,10 +1475,10 @@
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1484,7 +1491,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
@@ -1509,7 +1518,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1520,10 +1529,10 @@
       <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1545,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1563,7 +1572,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1590,7 +1599,9 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
@@ -1599,10 +1610,10 @@
       <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1615,7 +1626,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1626,10 +1637,10 @@
       <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="5" t="s">
         <v>41</v>
       </c>
@@ -1642,22 +1653,22 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="16" customHeight="1">
       <c r="A26" s="3">
@@ -1666,10 +1677,10 @@
       <c r="B26" s="5">
         <v>3</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="5" t="s">
         <v>70</v>
       </c>
@@ -1682,8 +1693,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="9" t="s">
-        <v>130</v>
+      <c r="K26" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1693,10 +1704,10 @@
       <c r="B27" s="5">
         <v>1.4</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5" t="s">
         <v>71</v>
       </c>
@@ -1709,7 +1720,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1736,7 +1747,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1747,10 +1758,10 @@
       <c r="B29" s="5">
         <v>3.6</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="5" t="s">
         <v>71</v>
       </c>
@@ -1763,7 +1774,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1790,7 +1801,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1801,7 +1812,7 @@
       <c r="B31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="8"/>
@@ -1817,7 +1828,9 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="9"/>
+      <c r="K31" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="19" customHeight="1">
       <c r="A32" s="3">
@@ -1826,10 +1839,10 @@
       <c r="B32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="5" t="s">
         <v>70</v>
       </c>
@@ -1842,7 +1855,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1853,10 +1866,10 @@
       <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="5" t="s">
         <v>70</v>
       </c>
@@ -1869,7 +1882,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1880,10 +1893,10 @@
       <c r="B34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="5" t="s">
         <v>70</v>
       </c>
@@ -1896,7 +1909,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1907,10 +1920,10 @@
       <c r="B35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="5" t="s">
         <v>71</v>
       </c>
@@ -1923,7 +1936,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1950,7 +1963,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1961,10 +1974,10 @@
       <c r="B37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="5" t="s">
         <v>70</v>
       </c>
@@ -1977,7 +1990,9 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="9"/>
+      <c r="K37" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="3">
@@ -2002,7 +2017,9 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="9"/>
+      <c r="K38" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3">
@@ -2027,7 +2044,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2038,10 +2055,10 @@
       <c r="B40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="5" t="s">
         <v>70</v>
       </c>
@@ -2054,7 +2071,9 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="9"/>
+      <c r="K40" s="14" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="3">
@@ -2063,10 +2082,10 @@
       <c r="B41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="5" t="s">
         <v>71</v>
       </c>
@@ -2079,7 +2098,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2090,10 +2109,10 @@
       <c r="B42" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="5" t="s">
         <v>70</v>
       </c>
@@ -2101,12 +2120,12 @@
         <v>8</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2117,10 +2136,10 @@
       <c r="B43" s="5">
         <v>5.3</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="5" t="s">
         <v>70</v>
       </c>
@@ -2133,7 +2152,9 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="9"/>
+      <c r="K43" s="14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="3">
@@ -2158,7 +2179,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2169,10 +2190,10 @@
       <c r="B45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="5" t="s">
         <v>71</v>
       </c>
@@ -2185,7 +2206,9 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="9"/>
+      <c r="K45" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="3">
@@ -2210,7 +2233,9 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="9"/>
+      <c r="K46" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3">
@@ -2235,7 +2260,9 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="K47" s="9"/>
+      <c r="K47" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3">
@@ -2244,10 +2271,10 @@
       <c r="B48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="5" t="s">
         <v>71</v>
       </c>
@@ -2260,7 +2287,9 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="9"/>
+      <c r="K48" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3">
@@ -2269,10 +2298,10 @@
       <c r="B49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5" t="s">
         <v>71</v>
       </c>
@@ -2285,83 +2314,20 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="9"/>
+      <c r="K49" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G48:J48"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="C42:D42"/>
@@ -2370,14 +2336,79 @@
     <mergeCell ref="G43:J43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="G44:J44"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/实验2：软件需求评审/对本组评审意见汇总/评审意见意见汇总.xlsx
+++ b/实验2：软件需求评审/对本组评审意见汇总/评审意见意见汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验2：软件需求评审/对本组评审意见汇总/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF4928-D96A-E740-A5A6-8AADD47460CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587F7C2-335A-4D41-8C50-0CF4D85B099A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="460" windowWidth="28020" windowHeight="17040" xr2:uid="{E6460FA4-8BA3-A546-89D6-6F487151E798}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17040" xr2:uid="{E6460FA4-8BA3-A546-89D6-6F487151E798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="132">
   <si>
     <t>问题位置</t>
   </si>
@@ -584,6 +584,10 @@
   </si>
   <si>
     <t>不接受，Gitlab项目的迁移过程中使用者仅需要填写仓库信息，没有其他需要参与的过程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不接受，缩进对标题的区分度已经足够，而且更加规范</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -761,14 +765,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,12 +787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,7 +1106,7 @@
   <dimension ref="A5:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1124,22 +1128,22 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="2" t="s">
         <v>121</v>
       </c>
@@ -1151,22 +1155,22 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="6" t="s">
         <v>122</v>
       </c>
@@ -1178,24 +1182,24 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1205,22 +1209,22 @@
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="6" t="s">
         <v>122</v>
       </c>
@@ -1232,22 +1236,22 @@
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="6" t="s">
         <v>123</v>
       </c>
@@ -1259,22 +1263,22 @@
       <c r="B10" s="4">
         <v>1.3</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="6" t="s">
         <v>129</v>
       </c>
@@ -1286,22 +1290,22 @@
       <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="6" t="s">
         <v>122</v>
       </c>
@@ -1313,22 +1317,22 @@
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="6" t="s">
         <v>122</v>
       </c>
@@ -1340,22 +1344,22 @@
       <c r="B13" s="4">
         <v>3.2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="6" t="s">
         <v>126</v>
       </c>
@@ -1367,22 +1371,22 @@
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="6" t="s">
         <v>122</v>
       </c>
@@ -1394,22 +1398,22 @@
       <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="6" t="s">
         <v>122</v>
       </c>
@@ -1421,22 +1425,22 @@
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="6" t="s">
         <v>122</v>
       </c>
@@ -1448,22 +1452,22 @@
       <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="6" t="s">
         <v>122</v>
       </c>
@@ -1475,23 +1479,23 @@
       <c r="B18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="14" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1502,22 +1506,22 @@
       <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="6" t="s">
         <v>122</v>
       </c>
@@ -1529,22 +1533,22 @@
       <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="6" t="s">
         <v>122</v>
       </c>
@@ -1556,22 +1560,22 @@
       <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="6" t="s">
         <v>122</v>
       </c>
@@ -1583,23 +1587,23 @@
       <c r="B22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="14" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1610,22 +1614,22 @@
       <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="6" t="s">
         <v>122</v>
       </c>
@@ -1637,38 +1641,38 @@
       <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" ht="16" customHeight="1">
       <c r="A26" s="3">
@@ -1677,22 +1681,22 @@
       <c r="B26" s="5">
         <v>3</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="6" t="s">
         <v>127</v>
       </c>
@@ -1704,22 +1708,22 @@
       <c r="B27" s="5">
         <v>1.4</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="6" t="s">
         <v>122</v>
       </c>
@@ -1731,22 +1735,22 @@
       <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="6" t="s">
         <v>122</v>
       </c>
@@ -1758,22 +1762,22 @@
       <c r="B29" s="5">
         <v>3.6</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="6" t="s">
         <v>122</v>
       </c>
@@ -1785,22 +1789,22 @@
       <c r="B30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="6" t="s">
         <v>122</v>
       </c>
@@ -1812,22 +1816,22 @@
       <c r="B31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="6" t="s">
         <v>122</v>
       </c>
@@ -1839,22 +1843,22 @@
       <c r="B32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="6" t="s">
         <v>122</v>
       </c>
@@ -1866,22 +1870,22 @@
       <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="6" t="s">
         <v>122</v>
       </c>
@@ -1893,22 +1897,22 @@
       <c r="B34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="6" t="s">
         <v>122</v>
       </c>
@@ -1920,22 +1924,22 @@
       <c r="B35" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="6" t="s">
         <v>122</v>
       </c>
@@ -1947,22 +1951,22 @@
       <c r="B36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="6" t="s">
         <v>122</v>
       </c>
@@ -1974,22 +1978,22 @@
       <c r="B37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="6" t="s">
         <v>122</v>
       </c>
@@ -2001,22 +2005,22 @@
       <c r="B38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="6" t="s">
         <v>122</v>
       </c>
@@ -2028,22 +2032,22 @@
       <c r="B39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="6" t="s">
         <v>122</v>
       </c>
@@ -2055,23 +2059,23 @@
       <c r="B40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="9"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="14" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="7" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2082,22 +2086,22 @@
       <c r="B41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="6" t="s">
         <v>122</v>
       </c>
@@ -2109,22 +2113,22 @@
       <c r="B42" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="9"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="6" t="s">
         <v>122</v>
       </c>
@@ -2136,23 +2140,23 @@
       <c r="B43" s="5">
         <v>5.3</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="14" t="s">
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2163,22 +2167,22 @@
       <c r="B44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="6" t="s">
         <v>122</v>
       </c>
@@ -2190,22 +2194,22 @@
       <c r="B45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="9"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="6" t="s">
         <v>122</v>
       </c>
@@ -2217,22 +2221,22 @@
       <c r="B46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="6" t="s">
         <v>122</v>
       </c>
@@ -2244,22 +2248,22 @@
       <c r="B47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="6" t="s">
         <v>122</v>
       </c>
@@ -2271,22 +2275,22 @@
       <c r="B48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="9"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="6" t="s">
         <v>122</v>
       </c>
@@ -2298,28 +2302,109 @@
       <c r="B49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="9"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
       <c r="K49" s="6" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="G44:J44"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="G49:J49"/>
     <mergeCell ref="C46:D46"/>
@@ -2328,87 +2413,6 @@
     <mergeCell ref="G47:J47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="G48:J48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
